--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sluz-my.sharepoint.com/personal/bryan_amrein_sluz_ch/Documents/Dokumente/Coding/Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Projekt\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="501" documentId="11_82D62BE961C382A235AB552D1DCD751B4867FF18" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C98299CE-FECA-44EC-8944-FFBEA45613B8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF1FE33-4543-43D8-989B-64B95839EBE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2115" windowWidth="29040" windowHeight="17640" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -279,9 +279,6 @@
     <t>Project Abstract erstellen</t>
   </si>
   <si>
-    <t>&lt;Name deines Projektes&gt;</t>
-  </si>
-  <si>
     <t>KW 48</t>
   </si>
   <si>
@@ -373,6 +370,9 @@
   </si>
   <si>
     <t>A024</t>
+  </si>
+  <si>
+    <t>Ultimate Pixel Racers</t>
   </si>
 </sst>
 </file>
@@ -1669,6 +1669,63 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1699,63 +1756,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1937,13 +1937,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2444,15 +2444,15 @@
   </sheetPr>
   <dimension ref="A1:BJ54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="31.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="5.1875" style="131" customWidth="1"/>
+    <col min="3" max="3" width="5.1875" style="122" customWidth="1"/>
     <col min="4" max="4" width="5.1875" style="13" customWidth="1"/>
     <col min="5" max="6" width="5.1875" style="5" customWidth="1"/>
     <col min="7" max="62" width="2.1875" style="5" customWidth="1"/>
@@ -2461,10 +2461,10 @@
   <sheetData>
     <row r="1" spans="1:62" ht="24.75" x14ac:dyDescent="0.45">
       <c r="A1" s="83" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="123"/>
+      <c r="C1" s="114"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -2496,7 +2496,7 @@
     <row r="2" spans="1:62" ht="5.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="124"/>
+      <c r="C2" s="115"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -2560,7 +2560,7 @@
     <row r="3" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="124"/>
+      <c r="C3" s="115"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -2626,7 +2626,7 @@
     <row r="4" spans="1:62" ht="6.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="124"/>
+      <c r="C4" s="115"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -2690,7 +2690,7 @@
     <row r="5" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="124"/>
+      <c r="C5" s="115"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -2756,7 +2756,7 @@
     <row r="6" spans="1:62" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="7"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="125"/>
+      <c r="C6" s="116"/>
       <c r="D6" s="8"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -2764,95 +2764,95 @@
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="9"/>
       <c r="B7" s="25"/>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="112"/>
+      <c r="D7" s="128"/>
       <c r="E7" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="113" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="113" t="s">
+      <c r="G7" s="129" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="113"/>
-      <c r="S7" s="113"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="113" t="s">
+      <c r="O7" s="129"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="130"/>
+      <c r="U7" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="V7" s="113"/>
-      <c r="W7" s="113"/>
-      <c r="X7" s="113"/>
-      <c r="Y7" s="113"/>
-      <c r="Z7" s="113"/>
-      <c r="AA7" s="114"/>
-      <c r="AB7" s="115" t="s">
+      <c r="V7" s="129"/>
+      <c r="W7" s="129"/>
+      <c r="X7" s="129"/>
+      <c r="Y7" s="129"/>
+      <c r="Z7" s="129"/>
+      <c r="AA7" s="130"/>
+      <c r="AB7" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="AC7" s="113"/>
-      <c r="AD7" s="113"/>
-      <c r="AE7" s="113"/>
-      <c r="AF7" s="113"/>
-      <c r="AG7" s="113"/>
-      <c r="AH7" s="114"/>
-      <c r="AI7" s="113" t="s">
+      <c r="AC7" s="129"/>
+      <c r="AD7" s="129"/>
+      <c r="AE7" s="129"/>
+      <c r="AF7" s="129"/>
+      <c r="AG7" s="129"/>
+      <c r="AH7" s="130"/>
+      <c r="AI7" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="AJ7" s="113"/>
-      <c r="AK7" s="113"/>
-      <c r="AL7" s="113"/>
-      <c r="AM7" s="113"/>
-      <c r="AN7" s="113"/>
-      <c r="AO7" s="114"/>
-      <c r="AP7" s="115" t="s">
+      <c r="AJ7" s="129"/>
+      <c r="AK7" s="129"/>
+      <c r="AL7" s="129"/>
+      <c r="AM7" s="129"/>
+      <c r="AN7" s="129"/>
+      <c r="AO7" s="130"/>
+      <c r="AP7" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="AQ7" s="113"/>
-      <c r="AR7" s="113"/>
-      <c r="AS7" s="113"/>
-      <c r="AT7" s="113"/>
-      <c r="AU7" s="113"/>
-      <c r="AV7" s="114"/>
-      <c r="AW7" s="113" t="s">
+      <c r="AQ7" s="129"/>
+      <c r="AR7" s="129"/>
+      <c r="AS7" s="129"/>
+      <c r="AT7" s="129"/>
+      <c r="AU7" s="129"/>
+      <c r="AV7" s="130"/>
+      <c r="AW7" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="AX7" s="113"/>
-      <c r="AY7" s="113"/>
-      <c r="AZ7" s="113"/>
-      <c r="BA7" s="113"/>
-      <c r="BB7" s="113"/>
-      <c r="BC7" s="114"/>
-      <c r="BD7" s="115" t="s">
+      <c r="AX7" s="129"/>
+      <c r="AY7" s="129"/>
+      <c r="AZ7" s="129"/>
+      <c r="BA7" s="129"/>
+      <c r="BB7" s="129"/>
+      <c r="BC7" s="130"/>
+      <c r="BD7" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="BE7" s="113"/>
-      <c r="BF7" s="113"/>
-      <c r="BG7" s="113"/>
-      <c r="BH7" s="113"/>
-      <c r="BI7" s="113"/>
-      <c r="BJ7" s="116"/>
+      <c r="BE7" s="129"/>
+      <c r="BF7" s="129"/>
+      <c r="BG7" s="129"/>
+      <c r="BH7" s="129"/>
+      <c r="BI7" s="129"/>
+      <c r="BJ7" s="132"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="24"/>
-      <c r="C8" s="126" t="s">
+      <c r="C8" s="117" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -3040,7 +3040,7 @@
       <c r="B9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="127">
+      <c r="C9" s="118">
         <f>SUM(C10:C13)</f>
         <v>5.5</v>
       </c>
@@ -3112,9 +3112,9 @@
         <v>101</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="128">
+        <v>42</v>
+      </c>
+      <c r="C10" s="119">
         <v>3.5</v>
       </c>
       <c r="D10" s="76">
@@ -3137,7 +3137,7 @@
       <c r="N10" s="48"/>
       <c r="O10" s="49"/>
       <c r="P10" s="89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q10" s="50"/>
       <c r="R10" s="51"/>
@@ -3154,13 +3154,13 @@
       <c r="AC10" s="93"/>
       <c r="AD10" s="50"/>
       <c r="AE10" s="88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF10" s="85"/>
       <c r="AG10" s="52"/>
       <c r="AH10" s="53"/>
       <c r="AI10" s="87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AJ10" s="49"/>
       <c r="AK10" s="84"/>
@@ -3171,7 +3171,7 @@
       <c r="AP10" s="87"/>
       <c r="AQ10" s="55"/>
       <c r="AR10" s="90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS10" s="84"/>
       <c r="AT10" s="85"/>
@@ -3180,7 +3180,7 @@
       <c r="AW10" s="48"/>
       <c r="AX10" s="49"/>
       <c r="AY10" s="88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ10" s="84"/>
       <c r="BA10" s="51"/>
@@ -3201,7 +3201,7 @@
       <c r="B11" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="129"/>
+      <c r="C11" s="120"/>
       <c r="D11" s="76">
         <f>SUM(G11:BJ11)</f>
         <v>0</v>
@@ -3278,7 +3278,7 @@
       <c r="B12" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="129"/>
+      <c r="C12" s="120"/>
       <c r="D12" s="76">
         <f t="shared" ref="D12:D13" si="0">SUM(G12:BJ12)</f>
         <v>0</v>
@@ -3349,9 +3349,9 @@
         <v>104</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="129">
+        <v>48</v>
+      </c>
+      <c r="C13" s="120">
         <v>2</v>
       </c>
       <c r="D13" s="76">
@@ -3362,7 +3362,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="54"/>
       <c r="H13" s="55"/>
@@ -3410,7 +3410,7 @@
       <c r="AX13" s="55"/>
       <c r="AY13" s="84"/>
       <c r="AZ13" s="84"/>
-      <c r="BA13" s="121"/>
+      <c r="BA13" s="112"/>
       <c r="BB13" s="60"/>
       <c r="BC13" s="61"/>
       <c r="BD13" s="54"/>
@@ -3428,7 +3428,7 @@
       <c r="B14" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="127">
+      <c r="C14" s="118">
         <f>SUM(C15:C17)</f>
         <v>0</v>
       </c>
@@ -3502,7 +3502,7 @@
       <c r="B15" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="129"/>
+      <c r="C15" s="120"/>
       <c r="D15" s="76">
         <f>SUM(G15:BJ15)</f>
         <v>0</v>
@@ -3571,9 +3571,9 @@
         <v>202</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="129"/>
+        <v>50</v>
+      </c>
+      <c r="C16" s="120"/>
       <c r="D16" s="76">
         <f>SUM(G16:BJ16)</f>
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>203</v>
       </c>
       <c r="B17" s="43"/>
-      <c r="C17" s="129"/>
+      <c r="C17" s="120"/>
       <c r="D17" s="76">
         <f>SUM(G17:BJ17)</f>
         <v>0</v>
@@ -3713,13 +3713,13 @@
       <c r="B18" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="127">
+      <c r="C18" s="118">
         <f>SUM(C19:C42)</f>
         <v>51</v>
       </c>
       <c r="D18" s="39">
         <f>SUM(D19:D30)</f>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="29"/>
@@ -3785,9 +3785,9 @@
         <v>301</v>
       </c>
       <c r="B19" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="129"/>
+        <v>49</v>
+      </c>
+      <c r="C19" s="120"/>
       <c r="D19" s="76">
         <f t="shared" ref="D19:D42" si="1">SUM(G19:BJ19)</f>
         <v>0</v>
@@ -3856,9 +3856,9 @@
         <v>302</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="129"/>
+        <v>43</v>
+      </c>
+      <c r="C20" s="120"/>
       <c r="D20" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3927,9 +3927,9 @@
         <v>303</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="129">
+        <v>52</v>
+      </c>
+      <c r="C21" s="120">
         <v>1.5</v>
       </c>
       <c r="D21" s="76">
@@ -3948,7 +3948,7 @@
       <c r="N21" s="54"/>
       <c r="O21" s="55"/>
       <c r="P21" s="84"/>
-      <c r="Q21" s="121">
+      <c r="Q21" s="112">
         <v>1</v>
       </c>
       <c r="R21" s="100"/>
@@ -4002,9 +4002,9 @@
         <v>304</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="129">
+        <v>53</v>
+      </c>
+      <c r="C22" s="120">
         <v>1.5</v>
       </c>
       <c r="D22" s="76">
@@ -4023,7 +4023,7 @@
       <c r="N22" s="54"/>
       <c r="O22" s="55"/>
       <c r="P22" s="84"/>
-      <c r="Q22" s="121">
+      <c r="Q22" s="112">
         <v>3</v>
       </c>
       <c r="R22" s="100"/>
@@ -4077,9 +4077,9 @@
         <v>305</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="129">
+        <v>54</v>
+      </c>
+      <c r="C23" s="120">
         <v>1.5</v>
       </c>
       <c r="D23" s="76">
@@ -4098,7 +4098,7 @@
       <c r="N23" s="54"/>
       <c r="O23" s="55"/>
       <c r="P23" s="55"/>
-      <c r="Q23" s="122">
+      <c r="Q23" s="113">
         <v>1</v>
       </c>
       <c r="R23" s="100"/>
@@ -4152,9 +4152,9 @@
         <v>306</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="129">
+        <v>55</v>
+      </c>
+      <c r="C24" s="120">
         <v>1.5</v>
       </c>
       <c r="D24" s="76">
@@ -4173,7 +4173,7 @@
       <c r="N24" s="54"/>
       <c r="O24" s="55"/>
       <c r="P24" s="84"/>
-      <c r="Q24" s="121">
+      <c r="Q24" s="112">
         <v>3</v>
       </c>
       <c r="R24" s="100"/>
@@ -4227,14 +4227,14 @@
         <v>308</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="129">
+        <v>51</v>
+      </c>
+      <c r="C25" s="120">
         <v>3</v>
       </c>
       <c r="D25" s="76">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" s="45"/>
       <c r="F25" s="46"/>
@@ -4249,7 +4249,9 @@
       <c r="O25" s="55"/>
       <c r="P25" s="84"/>
       <c r="Q25" s="99"/>
-      <c r="R25" s="132"/>
+      <c r="R25" s="123">
+        <v>3</v>
+      </c>
       <c r="S25" s="52"/>
       <c r="T25" s="53"/>
       <c r="U25" s="54"/>
@@ -4300,14 +4302,14 @@
         <v>310</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="129">
+        <v>59</v>
+      </c>
+      <c r="C26" s="120">
         <v>2</v>
       </c>
       <c r="D26" s="76">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E26" s="45"/>
       <c r="F26" s="46"/>
@@ -4322,7 +4324,9 @@
       <c r="O26" s="55"/>
       <c r="P26" s="84"/>
       <c r="Q26" s="99"/>
-      <c r="R26" s="132"/>
+      <c r="R26" s="123">
+        <v>10</v>
+      </c>
       <c r="S26" s="52"/>
       <c r="T26" s="53"/>
       <c r="U26" s="54"/>
@@ -4373,14 +4377,14 @@
         <v>311</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="129">
+        <v>58</v>
+      </c>
+      <c r="C27" s="120">
         <v>2</v>
       </c>
       <c r="D27" s="76">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E27" s="45"/>
       <c r="F27" s="46"/>
@@ -4395,7 +4399,9 @@
       <c r="O27" s="65"/>
       <c r="P27" s="84"/>
       <c r="Q27" s="99"/>
-      <c r="R27" s="132"/>
+      <c r="R27" s="123">
+        <v>2</v>
+      </c>
       <c r="S27" s="52"/>
       <c r="T27" s="53"/>
       <c r="U27" s="64"/>
@@ -4446,9 +4452,9 @@
         <v>312</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="129">
+        <v>57</v>
+      </c>
+      <c r="C28" s="120">
         <v>2</v>
       </c>
       <c r="D28" s="76">
@@ -4473,7 +4479,7 @@
       <c r="T28" s="53"/>
       <c r="U28" s="64"/>
       <c r="V28" s="65"/>
-      <c r="W28" s="121"/>
+      <c r="W28" s="112"/>
       <c r="X28" s="99"/>
       <c r="Y28" s="100"/>
       <c r="Z28" s="52"/>
@@ -4519,9 +4525,9 @@
         <v>313</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="129">
+        <v>56</v>
+      </c>
+      <c r="C29" s="120">
         <v>2</v>
       </c>
       <c r="D29" s="76">
@@ -4546,7 +4552,7 @@
       <c r="T29" s="53"/>
       <c r="U29" s="64"/>
       <c r="V29" s="65"/>
-      <c r="W29" s="121"/>
+      <c r="W29" s="112"/>
       <c r="X29" s="99"/>
       <c r="Y29" s="100"/>
       <c r="Z29" s="52"/>
@@ -4592,9 +4598,9 @@
         <v>315</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="129">
+        <v>60</v>
+      </c>
+      <c r="C30" s="120">
         <v>1</v>
       </c>
       <c r="D30" s="76">
@@ -4619,7 +4625,7 @@
       <c r="T30" s="53"/>
       <c r="U30" s="64"/>
       <c r="V30" s="65"/>
-      <c r="W30" s="121"/>
+      <c r="W30" s="112"/>
       <c r="X30" s="99"/>
       <c r="Y30" s="100"/>
       <c r="Z30" s="52"/>
@@ -4665,9 +4671,9 @@
         <v>317</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="129">
+        <v>61</v>
+      </c>
+      <c r="C31" s="120">
         <v>3</v>
       </c>
       <c r="D31" s="76">
@@ -4692,7 +4698,7 @@
       <c r="T31" s="61"/>
       <c r="U31" s="102"/>
       <c r="V31" s="103"/>
-      <c r="W31" s="133"/>
+      <c r="W31" s="124"/>
       <c r="X31" s="109"/>
       <c r="Y31" s="110"/>
       <c r="Z31" s="60"/>
@@ -4738,9 +4744,9 @@
         <v>318</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="129">
+        <v>62</v>
+      </c>
+      <c r="C32" s="120">
         <v>2</v>
       </c>
       <c r="D32" s="76">
@@ -4766,7 +4772,7 @@
       <c r="U32" s="102"/>
       <c r="V32" s="103"/>
       <c r="W32" s="109"/>
-      <c r="X32" s="133"/>
+      <c r="X32" s="124"/>
       <c r="Y32" s="110"/>
       <c r="Z32" s="60"/>
       <c r="AA32" s="61"/>
@@ -4811,9 +4817,9 @@
         <v>319</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="129">
+        <v>63</v>
+      </c>
+      <c r="C33" s="120">
         <v>2</v>
       </c>
       <c r="D33" s="76">
@@ -4839,7 +4845,7 @@
       <c r="U33" s="102"/>
       <c r="V33" s="103"/>
       <c r="W33" s="109"/>
-      <c r="X33" s="133"/>
+      <c r="X33" s="124"/>
       <c r="Y33" s="110"/>
       <c r="Z33" s="60"/>
       <c r="AA33" s="61"/>
@@ -4884,9 +4890,9 @@
         <v>320</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="129">
+        <v>64</v>
+      </c>
+      <c r="C34" s="120">
         <v>2</v>
       </c>
       <c r="D34" s="76">
@@ -4912,7 +4918,7 @@
       <c r="U34" s="102"/>
       <c r="V34" s="103"/>
       <c r="W34" s="109"/>
-      <c r="X34" s="133"/>
+      <c r="X34" s="124"/>
       <c r="Y34" s="110"/>
       <c r="Z34" s="60"/>
       <c r="AA34" s="61"/>
@@ -4957,9 +4963,9 @@
         <v>321</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="129">
+        <v>65</v>
+      </c>
+      <c r="C35" s="120">
         <v>2</v>
       </c>
       <c r="D35" s="76">
@@ -4986,7 +4992,7 @@
       <c r="V35" s="103"/>
       <c r="W35" s="109"/>
       <c r="X35" s="109"/>
-      <c r="Y35" s="134"/>
+      <c r="Y35" s="125"/>
       <c r="Z35" s="60"/>
       <c r="AA35" s="61"/>
       <c r="AB35" s="106"/>
@@ -5030,9 +5036,9 @@
         <v>322</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="129">
+        <v>66</v>
+      </c>
+      <c r="C36" s="120">
         <v>1</v>
       </c>
       <c r="D36" s="76">
@@ -5059,7 +5065,7 @@
       <c r="V36" s="103"/>
       <c r="W36" s="109"/>
       <c r="X36" s="109"/>
-      <c r="Y36" s="134"/>
+      <c r="Y36" s="125"/>
       <c r="Z36" s="60"/>
       <c r="AA36" s="61"/>
       <c r="AB36" s="106"/>
@@ -5103,9 +5109,9 @@
         <v>323</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="129">
+        <v>63</v>
+      </c>
+      <c r="C37" s="120">
         <v>2</v>
       </c>
       <c r="D37" s="76">
@@ -5132,7 +5138,7 @@
       <c r="V37" s="103"/>
       <c r="W37" s="109"/>
       <c r="X37" s="109"/>
-      <c r="Y37" s="134"/>
+      <c r="Y37" s="125"/>
       <c r="Z37" s="60"/>
       <c r="AA37" s="61"/>
       <c r="AB37" s="106"/>
@@ -5176,9 +5182,9 @@
         <v>324</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="129">
+        <v>67</v>
+      </c>
+      <c r="C38" s="120">
         <v>4</v>
       </c>
       <c r="D38" s="76">
@@ -5205,10 +5211,10 @@
       <c r="V38" s="103"/>
       <c r="W38" s="109"/>
       <c r="X38" s="109"/>
-      <c r="Y38" s="134"/>
+      <c r="Y38" s="125"/>
       <c r="Z38" s="60"/>
       <c r="AA38" s="61"/>
-      <c r="AB38" s="135"/>
+      <c r="AB38" s="126"/>
       <c r="AC38" s="104"/>
       <c r="AD38" s="104"/>
       <c r="AE38" s="103"/>
@@ -5249,9 +5255,9 @@
         <v>325</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="129">
+        <v>68</v>
+      </c>
+      <c r="C39" s="120">
         <v>2</v>
       </c>
       <c r="D39" s="76">
@@ -5281,7 +5287,7 @@
       <c r="Y39" s="110"/>
       <c r="Z39" s="60"/>
       <c r="AA39" s="61"/>
-      <c r="AB39" s="135"/>
+      <c r="AB39" s="126"/>
       <c r="AC39" s="104"/>
       <c r="AD39" s="104"/>
       <c r="AE39" s="103"/>
@@ -5322,9 +5328,9 @@
         <v>326</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="129">
+        <v>69</v>
+      </c>
+      <c r="C40" s="120">
         <v>8</v>
       </c>
       <c r="D40" s="76">
@@ -5354,8 +5360,8 @@
       <c r="Y40" s="110"/>
       <c r="Z40" s="60"/>
       <c r="AA40" s="61"/>
-      <c r="AB40" s="135"/>
-      <c r="AC40" s="133"/>
+      <c r="AB40" s="126"/>
+      <c r="AC40" s="124"/>
       <c r="AD40" s="104"/>
       <c r="AE40" s="103"/>
       <c r="AF40" s="107"/>
@@ -5395,9 +5401,9 @@
         <v>327</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="129">
+        <v>70</v>
+      </c>
+      <c r="C41" s="120">
         <v>2</v>
       </c>
       <c r="D41" s="76">
@@ -5427,8 +5433,8 @@
       <c r="Y41" s="110"/>
       <c r="Z41" s="60"/>
       <c r="AA41" s="61"/>
-      <c r="AB41" s="136"/>
-      <c r="AC41" s="133"/>
+      <c r="AB41" s="127"/>
+      <c r="AC41" s="124"/>
       <c r="AD41" s="104"/>
       <c r="AE41" s="103"/>
       <c r="AF41" s="107"/>
@@ -5468,9 +5474,9 @@
         <v>328</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="129">
+        <v>71</v>
+      </c>
+      <c r="C42" s="120">
         <v>3</v>
       </c>
       <c r="D42" s="76">
@@ -5500,8 +5506,8 @@
       <c r="Y42" s="110"/>
       <c r="Z42" s="60"/>
       <c r="AA42" s="61"/>
-      <c r="AB42" s="136"/>
-      <c r="AC42" s="133"/>
+      <c r="AB42" s="127"/>
+      <c r="AC42" s="124"/>
       <c r="AD42" s="104"/>
       <c r="AE42" s="103"/>
       <c r="AF42" s="107"/>
@@ -5543,7 +5549,7 @@
       <c r="B43" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="127">
+      <c r="C43" s="118">
         <f>SUM(C44:C46)</f>
         <v>0</v>
       </c>
@@ -5617,7 +5623,7 @@
       <c r="B44" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="129"/>
+      <c r="C44" s="120"/>
       <c r="D44" s="76">
         <f t="shared" ref="D44:D46" si="2">SUM(G44:BJ44)</f>
         <v>0</v>
@@ -5688,7 +5694,7 @@
       <c r="B45" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="129"/>
+      <c r="C45" s="120"/>
       <c r="D45" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5759,7 +5765,7 @@
       <c r="B46" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="129"/>
+      <c r="C46" s="120"/>
       <c r="D46" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5830,13 +5836,13 @@
       <c r="B47" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="127">
+      <c r="C47" s="118">
         <f>SUM(C48:C49)</f>
         <v>17</v>
       </c>
       <c r="D47" s="39">
         <f>SUM(D48:D49)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E47" s="30"/>
       <c r="F47" s="29"/>
@@ -5904,12 +5910,12 @@
       <c r="B48" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="129">
+      <c r="C48" s="120">
         <v>17</v>
       </c>
       <c r="D48" s="76">
         <f>SUM(G48:BJ48)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E48" s="45"/>
       <c r="F48" s="46"/>
@@ -5923,18 +5929,18 @@
       <c r="N48" s="48"/>
       <c r="O48" s="49"/>
       <c r="P48" s="84"/>
-      <c r="Q48" s="121">
-        <v>2</v>
-      </c>
-      <c r="R48" s="132">
-        <v>1</v>
+      <c r="Q48" s="112">
+        <v>0</v>
+      </c>
+      <c r="R48" s="123">
+        <v>0</v>
       </c>
       <c r="S48" s="52"/>
       <c r="T48" s="53"/>
       <c r="U48" s="48"/>
       <c r="V48" s="49"/>
       <c r="W48" s="99"/>
-      <c r="X48" s="121">
+      <c r="X48" s="112">
         <v>2</v>
       </c>
       <c r="Y48" s="100"/>
@@ -5942,7 +5948,7 @@
       <c r="AA48" s="53"/>
       <c r="AB48" s="92"/>
       <c r="AC48" s="93"/>
-      <c r="AD48" s="121">
+      <c r="AD48" s="112">
         <v>8</v>
       </c>
       <c r="AE48" s="84"/>
@@ -5967,7 +5973,7 @@
       <c r="AX48" s="49"/>
       <c r="AY48" s="84"/>
       <c r="AZ48" s="84"/>
-      <c r="BA48" s="132">
+      <c r="BA48" s="123">
         <v>4</v>
       </c>
       <c r="BB48" s="52"/>
@@ -5985,7 +5991,7 @@
         <v>502</v>
       </c>
       <c r="B49" s="43"/>
-      <c r="C49" s="129"/>
+      <c r="C49" s="120"/>
       <c r="D49" s="76">
         <f>SUM(G49:BJ49)</f>
         <v>0</v>
@@ -6056,7 +6062,7 @@
       <c r="B50" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="127">
+      <c r="C50" s="118">
         <f>SUM(C51:C53)</f>
         <v>2</v>
       </c>
@@ -6130,7 +6136,7 @@
       <c r="B51" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="129"/>
+      <c r="C51" s="120"/>
       <c r="D51" s="76">
         <f t="shared" ref="D51:D53" si="3">SUM(G51:BJ51)</f>
         <v>0</v>
@@ -6201,7 +6207,7 @@
       <c r="B52" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="129">
+      <c r="C52" s="120">
         <v>2</v>
       </c>
       <c r="D52" s="76">
@@ -6256,7 +6262,7 @@
       <c r="AX52" s="55"/>
       <c r="AY52" s="84"/>
       <c r="AZ52" s="84"/>
-      <c r="BA52" s="132"/>
+      <c r="BA52" s="123"/>
       <c r="BB52" s="52"/>
       <c r="BC52" s="53"/>
       <c r="BD52" s="54"/>
@@ -6272,7 +6278,7 @@
         <v>603</v>
       </c>
       <c r="B53" s="43"/>
-      <c r="C53" s="129"/>
+      <c r="C53" s="120"/>
       <c r="D53" s="76">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6341,13 +6347,13 @@
       <c r="B54" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="130">
+      <c r="C54" s="121">
         <f>C50+C47+C43+C18+C14+C9</f>
         <v>75.5</v>
       </c>
       <c r="D54" s="35">
         <f>D50+D47+D43+D18+D14+D9</f>
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E54" s="35"/>
       <c r="F54" s="36"/>
@@ -6393,11 +6399,11 @@
       </c>
       <c r="Q54" s="37">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R54" s="37">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="S54" s="37">
         <f t="shared" si="4"/>
@@ -6480,99 +6486,99 @@
         <v>0</v>
       </c>
       <c r="AM54" s="37">
-        <f>SUM(AM9:AM53)</f>
+        <f t="shared" ref="AM54:BJ54" si="5">SUM(AM9:AM53)</f>
         <v>0</v>
       </c>
       <c r="AN54" s="37">
-        <f>SUM(AN9:AN53)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO54" s="37">
-        <f>SUM(AO9:AO53)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AP54" s="37">
-        <f>SUM(AP9:AP53)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AQ54" s="37">
-        <f>SUM(AQ9:AQ53)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AR54" s="37">
-        <f>SUM(AR9:AR53)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AS54" s="37">
-        <f>SUM(AS9:AS53)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AT54" s="37">
-        <f>SUM(AT9:AT53)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU54" s="37">
-        <f>SUM(AU9:AU53)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AV54" s="37">
-        <f>SUM(AV9:AV53)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AW54" s="37">
-        <f>SUM(AW9:AW53)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AX54" s="37">
-        <f>SUM(AX9:AX53)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AY54" s="37">
-        <f>SUM(AY9:AY53)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AZ54" s="37">
-        <f>SUM(AZ9:AZ53)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BA54" s="37">
-        <f>SUM(BA9:BA53)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BB54" s="37">
-        <f>SUM(BB9:BB53)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC54" s="37">
-        <f>SUM(BC9:BC53)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BD54" s="37">
-        <f>SUM(BD9:BD53)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BE54" s="37">
-        <f>SUM(BE9:BE53)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BF54" s="37">
-        <f>SUM(BF9:BF53)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG54" s="37">
-        <f>SUM(BG9:BG53)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BH54" s="37">
-        <f>SUM(BH9:BH53)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI54" s="37">
-        <f>SUM(BI9:BI53)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ54" s="38">
-        <f>SUM(BJ9:BJ53)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6622,10 +6628,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="120"/>
+      <c r="B2" s="136"/>
       <c r="C2" s="72" t="s">
         <v>13</v>
       </c>
@@ -6634,11 +6640,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="117" t="str">
+      <c r="A3" s="133" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="118"/>
+      <c r="B3" s="134"/>
       <c r="C3" s="73">
         <f>Zeitplanung!C9</f>
         <v>5.5</v>
@@ -6651,11 +6657,11 @@
       <c r="F3" s="74"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="117" t="str">
+      <c r="A4" s="133" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="118"/>
+      <c r="B4" s="134"/>
       <c r="C4" s="73">
         <f>Zeitplanung!C14</f>
         <v>0</v>
@@ -6668,28 +6674,28 @@
       <c r="F4" s="74"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="117" t="str">
+      <c r="A5" s="133" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="118"/>
+      <c r="B5" s="134"/>
       <c r="C5" s="73">
         <f>Zeitplanung!C18</f>
         <v>51</v>
       </c>
       <c r="D5" s="73">
         <f>Zeitplanung!D18</f>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E5" s="75"/>
       <c r="F5" s="74"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="117" t="str">
+      <c r="A6" s="133" t="str">
         <f>Zeitplanung!B43</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="118"/>
+      <c r="B6" s="134"/>
       <c r="C6" s="73">
         <f>Zeitplanung!C43</f>
         <v>0</v>
@@ -6701,27 +6707,27 @@
       <c r="F6" s="74"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="117" t="str">
+      <c r="A7" s="133" t="str">
         <f>Zeitplanung!B47</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="118"/>
+      <c r="B7" s="134"/>
       <c r="C7" s="73">
         <f>Zeitplanung!C47</f>
         <v>17</v>
       </c>
       <c r="D7" s="73">
         <f>Zeitplanung!D47</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F7" s="74"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="117" t="str">
+      <c r="A8" s="133" t="str">
         <f>Zeitplanung!B50</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="118"/>
+      <c r="B8" s="134"/>
       <c r="C8" s="73">
         <f>Zeitplanung!C50</f>
         <v>2</v>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Projekt\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF1FE33-4543-43D8-989B-64B95839EBE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A2331F-502B-4CD5-A036-3FA5AA96AB2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2115" windowWidth="29040" windowHeight="17640" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -2445,7 +2445,7 @@
   <dimension ref="A1:BJ54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Projekt\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A2331F-502B-4CD5-A036-3FA5AA96AB2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2BE2E2-4894-4874-AFCF-2E0A660A944C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1937,7 +1937,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2444,8 +2444,8 @@
   </sheetPr>
   <dimension ref="A1:BJ54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="D18" s="39">
         <f>SUM(D19:D30)</f>
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="29"/>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="D28" s="76">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E28" s="45"/>
       <c r="F28" s="46"/>
@@ -4479,7 +4479,9 @@
       <c r="T28" s="53"/>
       <c r="U28" s="64"/>
       <c r="V28" s="65"/>
-      <c r="W28" s="112"/>
+      <c r="W28" s="112">
+        <v>8</v>
+      </c>
       <c r="X28" s="99"/>
       <c r="Y28" s="100"/>
       <c r="Z28" s="52"/>
@@ -4532,7 +4534,7 @@
       </c>
       <c r="D29" s="76">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29" s="45"/>
       <c r="F29" s="46"/>
@@ -4552,7 +4554,9 @@
       <c r="T29" s="53"/>
       <c r="U29" s="64"/>
       <c r="V29" s="65"/>
-      <c r="W29" s="112"/>
+      <c r="W29" s="112">
+        <v>2</v>
+      </c>
       <c r="X29" s="99"/>
       <c r="Y29" s="100"/>
       <c r="Z29" s="52"/>
@@ -4605,7 +4609,7 @@
       </c>
       <c r="D30" s="76">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="45"/>
       <c r="F30" s="46"/>
@@ -4625,7 +4629,9 @@
       <c r="T30" s="53"/>
       <c r="U30" s="64"/>
       <c r="V30" s="65"/>
-      <c r="W30" s="112"/>
+      <c r="W30" s="112">
+        <v>1</v>
+      </c>
       <c r="X30" s="99"/>
       <c r="Y30" s="100"/>
       <c r="Z30" s="52"/>
@@ -4751,7 +4757,7 @@
       </c>
       <c r="D32" s="76">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32" s="45"/>
       <c r="F32" s="46"/>
@@ -4772,7 +4778,9 @@
       <c r="U32" s="102"/>
       <c r="V32" s="103"/>
       <c r="W32" s="109"/>
-      <c r="X32" s="124"/>
+      <c r="X32" s="124">
+        <v>2</v>
+      </c>
       <c r="Y32" s="110"/>
       <c r="Z32" s="60"/>
       <c r="AA32" s="61"/>
@@ -4824,7 +4832,7 @@
       </c>
       <c r="D33" s="76">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E33" s="45"/>
       <c r="F33" s="46"/>
@@ -4845,7 +4853,9 @@
       <c r="U33" s="102"/>
       <c r="V33" s="103"/>
       <c r="W33" s="109"/>
-      <c r="X33" s="124"/>
+      <c r="X33" s="124">
+        <v>2</v>
+      </c>
       <c r="Y33" s="110"/>
       <c r="Z33" s="60"/>
       <c r="AA33" s="61"/>
@@ -4897,7 +4907,7 @@
       </c>
       <c r="D34" s="76">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="45"/>
       <c r="F34" s="46"/>
@@ -4918,7 +4928,9 @@
       <c r="U34" s="102"/>
       <c r="V34" s="103"/>
       <c r="W34" s="109"/>
-      <c r="X34" s="124"/>
+      <c r="X34" s="124">
+        <v>1</v>
+      </c>
       <c r="Y34" s="110"/>
       <c r="Z34" s="60"/>
       <c r="AA34" s="61"/>
@@ -6353,7 +6365,7 @@
       </c>
       <c r="D54" s="35">
         <f>D50+D47+D43+D18+D14+D9</f>
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E54" s="35"/>
       <c r="F54" s="36"/>
@@ -6423,11 +6435,11 @@
       </c>
       <c r="W54" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X54" s="37">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Y54" s="37">
         <f t="shared" si="4"/>
@@ -6685,7 +6697,7 @@
       </c>
       <c r="D5" s="73">
         <f>Zeitplanung!D18</f>
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E5" s="75"/>
       <c r="F5" s="74"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Projekt\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2BE2E2-4894-4874-AFCF-2E0A660A944C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352549C9-E1F4-4469-BA8E-8BE40E0FC7EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24960" yWindow="6450" windowWidth="14400" windowHeight="7380" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Ist Arbeitszeit - Übersicht'!$A$1:$O$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplanung!$A$1:$T$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplanung!$A$1:$T$53</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="73">
   <si>
     <t>Nr.</t>
   </si>
@@ -1931,13 +1931,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1946,7 +1946,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2442,10 +2442,10 @@
   <sheetPr codeName="Tabelle1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:BJ54"/>
+  <dimension ref="A1:BJ53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X34" sqref="X34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="D9" s="39">
         <f>SUM(D10:D13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="29"/>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="D13" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="45">
         <v>1</v>
@@ -3410,7 +3410,9 @@
       <c r="AX13" s="55"/>
       <c r="AY13" s="84"/>
       <c r="AZ13" s="84"/>
-      <c r="BA13" s="112"/>
+      <c r="BA13" s="112">
+        <v>1</v>
+      </c>
       <c r="BB13" s="60"/>
       <c r="BC13" s="61"/>
       <c r="BD13" s="54"/>
@@ -3714,12 +3716,12 @@
         <v>9</v>
       </c>
       <c r="C18" s="118">
-        <f>SUM(C19:C42)</f>
+        <f>SUM(C19:C41)</f>
         <v>51</v>
       </c>
       <c r="D18" s="39">
-        <f>SUM(D19:D30)</f>
-        <v>34</v>
+        <f>SUM(D19:D41)</f>
+        <v>53</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="29"/>
@@ -3789,7 +3791,7 @@
       </c>
       <c r="C19" s="120"/>
       <c r="D19" s="76">
-        <f t="shared" ref="D19:D42" si="1">SUM(G19:BJ19)</f>
+        <f t="shared" ref="D19:D41" si="1">SUM(G19:BJ19)</f>
         <v>0</v>
       </c>
       <c r="E19" s="45"/>
@@ -4455,11 +4457,11 @@
         <v>57</v>
       </c>
       <c r="C28" s="120">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" s="76">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E28" s="45"/>
       <c r="F28" s="46"/>
@@ -4480,7 +4482,7 @@
       <c r="U28" s="64"/>
       <c r="V28" s="65"/>
       <c r="W28" s="112">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X28" s="99"/>
       <c r="Y28" s="100"/>
@@ -5004,7 +5006,9 @@
       <c r="V35" s="103"/>
       <c r="W35" s="109"/>
       <c r="X35" s="109"/>
-      <c r="Y35" s="125"/>
+      <c r="Y35" s="125">
+        <v>0</v>
+      </c>
       <c r="Z35" s="60"/>
       <c r="AA35" s="61"/>
       <c r="AB35" s="106"/>
@@ -5077,7 +5081,9 @@
       <c r="V36" s="103"/>
       <c r="W36" s="109"/>
       <c r="X36" s="109"/>
-      <c r="Y36" s="125"/>
+      <c r="Y36" s="125">
+        <v>0</v>
+      </c>
       <c r="Z36" s="60"/>
       <c r="AA36" s="61"/>
       <c r="AB36" s="106"/>
@@ -5118,13 +5124,13 @@
     </row>
     <row r="37" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="12">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C37" s="120">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" s="76">
         <f t="shared" si="1"/>
@@ -5150,10 +5156,14 @@
       <c r="V37" s="103"/>
       <c r="W37" s="109"/>
       <c r="X37" s="109"/>
-      <c r="Y37" s="125"/>
+      <c r="Y37" s="125">
+        <v>0</v>
+      </c>
       <c r="Z37" s="60"/>
       <c r="AA37" s="61"/>
-      <c r="AB37" s="106"/>
+      <c r="AB37" s="126">
+        <v>0</v>
+      </c>
       <c r="AC37" s="104"/>
       <c r="AD37" s="104"/>
       <c r="AE37" s="103"/>
@@ -5191,13 +5201,13 @@
     </row>
     <row r="38" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="12">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C38" s="120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" s="76">
         <f t="shared" si="1"/>
@@ -5223,10 +5233,12 @@
       <c r="V38" s="103"/>
       <c r="W38" s="109"/>
       <c r="X38" s="109"/>
-      <c r="Y38" s="125"/>
+      <c r="Y38" s="110"/>
       <c r="Z38" s="60"/>
       <c r="AA38" s="61"/>
-      <c r="AB38" s="126"/>
+      <c r="AB38" s="126">
+        <v>0</v>
+      </c>
       <c r="AC38" s="104"/>
       <c r="AD38" s="104"/>
       <c r="AE38" s="103"/>
@@ -5264,13 +5276,13 @@
     </row>
     <row r="39" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C39" s="120">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D39" s="76">
         <f t="shared" si="1"/>
@@ -5299,8 +5311,12 @@
       <c r="Y39" s="110"/>
       <c r="Z39" s="60"/>
       <c r="AA39" s="61"/>
-      <c r="AB39" s="126"/>
-      <c r="AC39" s="104"/>
+      <c r="AB39" s="126">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="124">
+        <v>0</v>
+      </c>
       <c r="AD39" s="104"/>
       <c r="AE39" s="103"/>
       <c r="AF39" s="107"/>
@@ -5337,17 +5353,17 @@
     </row>
     <row r="40" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="12">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C40" s="120">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D40" s="76">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E40" s="45"/>
       <c r="F40" s="46"/>
@@ -5372,8 +5388,10 @@
       <c r="Y40" s="110"/>
       <c r="Z40" s="60"/>
       <c r="AA40" s="61"/>
-      <c r="AB40" s="126"/>
-      <c r="AC40" s="124"/>
+      <c r="AB40" s="127"/>
+      <c r="AC40" s="124">
+        <v>16</v>
+      </c>
       <c r="AD40" s="104"/>
       <c r="AE40" s="103"/>
       <c r="AF40" s="107"/>
@@ -5410,13 +5428,13 @@
     </row>
     <row r="41" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="12">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C41" s="120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" s="76">
         <f t="shared" si="1"/>
@@ -5446,7 +5464,9 @@
       <c r="Z41" s="60"/>
       <c r="AA41" s="61"/>
       <c r="AB41" s="127"/>
-      <c r="AC41" s="124"/>
+      <c r="AC41" s="124">
+        <v>0</v>
+      </c>
       <c r="AD41" s="104"/>
       <c r="AE41" s="103"/>
       <c r="AF41" s="107"/>
@@ -5482,217 +5502,215 @@
       <c r="BJ41" s="60"/>
     </row>
     <row r="42" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="12">
-        <v>328</v>
-      </c>
-      <c r="B42" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="120">
-        <v>3</v>
-      </c>
-      <c r="D42" s="76">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="45"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="102"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="104"/>
-      <c r="J42" s="104"/>
-      <c r="K42" s="105"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="61"/>
-      <c r="N42" s="102"/>
-      <c r="O42" s="103"/>
-      <c r="P42" s="103"/>
-      <c r="Q42" s="104"/>
-      <c r="R42" s="105"/>
-      <c r="S42" s="60"/>
-      <c r="T42" s="61"/>
-      <c r="U42" s="102"/>
-      <c r="V42" s="103"/>
-      <c r="W42" s="109"/>
-      <c r="X42" s="109"/>
-      <c r="Y42" s="110"/>
-      <c r="Z42" s="60"/>
-      <c r="AA42" s="61"/>
-      <c r="AB42" s="127"/>
-      <c r="AC42" s="124"/>
-      <c r="AD42" s="104"/>
-      <c r="AE42" s="103"/>
-      <c r="AF42" s="107"/>
-      <c r="AG42" s="60"/>
-      <c r="AH42" s="61"/>
-      <c r="AI42" s="102"/>
-      <c r="AJ42" s="103"/>
-      <c r="AK42" s="103"/>
-      <c r="AL42" s="103"/>
-      <c r="AM42" s="107"/>
-      <c r="AN42" s="60"/>
-      <c r="AO42" s="61"/>
-      <c r="AP42" s="102"/>
-      <c r="AQ42" s="103"/>
-      <c r="AR42" s="103"/>
-      <c r="AS42" s="103"/>
-      <c r="AT42" s="107"/>
-      <c r="AU42" s="60"/>
-      <c r="AV42" s="61"/>
-      <c r="AW42" s="108"/>
-      <c r="AX42" s="103"/>
-      <c r="AY42" s="103"/>
-      <c r="AZ42" s="103"/>
-      <c r="BA42" s="105"/>
-      <c r="BB42" s="60"/>
-      <c r="BC42" s="61"/>
-      <c r="BD42" s="108"/>
-      <c r="BE42" s="103"/>
-      <c r="BF42" s="104"/>
-      <c r="BG42" s="104"/>
-      <c r="BH42" s="105"/>
-      <c r="BI42" s="60"/>
-      <c r="BJ42" s="60"/>
+      <c r="A42" s="28">
+        <v>40</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="118">
+        <f>SUM(C43:C45)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="39">
+        <f>SUM(D43:D45)</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="30"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="67"/>
+      <c r="P42" s="67"/>
+      <c r="Q42" s="67"/>
+      <c r="R42" s="68"/>
+      <c r="S42" s="68"/>
+      <c r="T42" s="69"/>
+      <c r="U42" s="66"/>
+      <c r="V42" s="67"/>
+      <c r="W42" s="67"/>
+      <c r="X42" s="67"/>
+      <c r="Y42" s="67"/>
+      <c r="Z42" s="68"/>
+      <c r="AA42" s="69"/>
+      <c r="AB42" s="70"/>
+      <c r="AC42" s="67"/>
+      <c r="AD42" s="67"/>
+      <c r="AE42" s="67"/>
+      <c r="AF42" s="68"/>
+      <c r="AG42" s="68"/>
+      <c r="AH42" s="69"/>
+      <c r="AI42" s="66"/>
+      <c r="AJ42" s="67"/>
+      <c r="AK42" s="67"/>
+      <c r="AL42" s="67"/>
+      <c r="AM42" s="68"/>
+      <c r="AN42" s="68"/>
+      <c r="AO42" s="69"/>
+      <c r="AP42" s="66"/>
+      <c r="AQ42" s="67"/>
+      <c r="AR42" s="67"/>
+      <c r="AS42" s="67"/>
+      <c r="AT42" s="68"/>
+      <c r="AU42" s="68"/>
+      <c r="AV42" s="69"/>
+      <c r="AW42" s="70"/>
+      <c r="AX42" s="67"/>
+      <c r="AY42" s="67"/>
+      <c r="AZ42" s="67"/>
+      <c r="BA42" s="67"/>
+      <c r="BB42" s="67"/>
+      <c r="BC42" s="69"/>
+      <c r="BD42" s="70"/>
+      <c r="BE42" s="67"/>
+      <c r="BF42" s="67"/>
+      <c r="BG42" s="67"/>
+      <c r="BH42" s="67"/>
+      <c r="BI42" s="67"/>
+      <c r="BJ42" s="71"/>
     </row>
     <row r="43" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="28">
-        <v>40</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="118">
-        <f>SUM(C44:C46)</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="39">
-        <f>SUM(D44:D46)</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="68"/>
-      <c r="M43" s="69"/>
-      <c r="N43" s="66"/>
-      <c r="O43" s="67"/>
-      <c r="P43" s="67"/>
-      <c r="Q43" s="67"/>
-      <c r="R43" s="68"/>
-      <c r="S43" s="68"/>
-      <c r="T43" s="69"/>
-      <c r="U43" s="66"/>
-      <c r="V43" s="67"/>
-      <c r="W43" s="67"/>
-      <c r="X43" s="67"/>
-      <c r="Y43" s="67"/>
-      <c r="Z43" s="68"/>
-      <c r="AA43" s="69"/>
-      <c r="AB43" s="70"/>
-      <c r="AC43" s="67"/>
-      <c r="AD43" s="67"/>
-      <c r="AE43" s="67"/>
-      <c r="AF43" s="68"/>
-      <c r="AG43" s="68"/>
-      <c r="AH43" s="69"/>
-      <c r="AI43" s="66"/>
-      <c r="AJ43" s="67"/>
-      <c r="AK43" s="67"/>
-      <c r="AL43" s="67"/>
-      <c r="AM43" s="68"/>
-      <c r="AN43" s="68"/>
-      <c r="AO43" s="69"/>
-      <c r="AP43" s="66"/>
-      <c r="AQ43" s="67"/>
-      <c r="AR43" s="67"/>
-      <c r="AS43" s="67"/>
-      <c r="AT43" s="68"/>
-      <c r="AU43" s="68"/>
-      <c r="AV43" s="69"/>
-      <c r="AW43" s="70"/>
-      <c r="AX43" s="67"/>
-      <c r="AY43" s="67"/>
-      <c r="AZ43" s="67"/>
-      <c r="BA43" s="67"/>
-      <c r="BB43" s="67"/>
-      <c r="BC43" s="69"/>
-      <c r="BD43" s="70"/>
-      <c r="BE43" s="67"/>
-      <c r="BF43" s="67"/>
-      <c r="BG43" s="67"/>
-      <c r="BH43" s="67"/>
-      <c r="BI43" s="67"/>
-      <c r="BJ43" s="71"/>
+      <c r="A43" s="12">
+        <v>401</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="120"/>
+      <c r="D43" s="76">
+        <f t="shared" ref="D43:D45" si="2">SUM(G43:BJ43)</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="45"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="84"/>
+      <c r="Q43" s="99"/>
+      <c r="R43" s="100"/>
+      <c r="S43" s="52"/>
+      <c r="T43" s="53"/>
+      <c r="U43" s="48"/>
+      <c r="V43" s="49"/>
+      <c r="W43" s="50"/>
+      <c r="X43" s="50"/>
+      <c r="Y43" s="51"/>
+      <c r="Z43" s="52"/>
+      <c r="AA43" s="53"/>
+      <c r="AB43" s="92"/>
+      <c r="AC43" s="93"/>
+      <c r="AD43" s="50"/>
+      <c r="AE43" s="84"/>
+      <c r="AF43" s="85"/>
+      <c r="AG43" s="52"/>
+      <c r="AH43" s="53"/>
+      <c r="AI43" s="48"/>
+      <c r="AJ43" s="49"/>
+      <c r="AK43" s="84"/>
+      <c r="AL43" s="84"/>
+      <c r="AM43" s="85"/>
+      <c r="AN43" s="52"/>
+      <c r="AO43" s="53"/>
+      <c r="AP43" s="48"/>
+      <c r="AQ43" s="49"/>
+      <c r="AR43" s="84"/>
+      <c r="AS43" s="84"/>
+      <c r="AT43" s="85"/>
+      <c r="AU43" s="52"/>
+      <c r="AV43" s="53"/>
+      <c r="AW43" s="48"/>
+      <c r="AX43" s="49"/>
+      <c r="AY43" s="84"/>
+      <c r="AZ43" s="84"/>
+      <c r="BA43" s="51"/>
+      <c r="BB43" s="52"/>
+      <c r="BC43" s="53"/>
+      <c r="BD43" s="48"/>
+      <c r="BE43" s="49"/>
+      <c r="BF43" s="50"/>
+      <c r="BG43" s="50"/>
+      <c r="BH43" s="51"/>
+      <c r="BI43" s="52"/>
+      <c r="BJ43" s="53"/>
     </row>
     <row r="44" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="12">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C44" s="120"/>
       <c r="D44" s="76">
-        <f t="shared" ref="D44:D46" si="2">SUM(G44:BJ44)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E44" s="45"/>
       <c r="F44" s="46"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="49"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="55"/>
       <c r="I44" s="50"/>
       <c r="J44" s="50"/>
       <c r="K44" s="51"/>
       <c r="L44" s="52"/>
       <c r="M44" s="53"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="49"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="55"/>
       <c r="P44" s="84"/>
       <c r="Q44" s="99"/>
-      <c r="R44" s="100"/>
+      <c r="R44" s="111"/>
       <c r="S44" s="52"/>
       <c r="T44" s="53"/>
-      <c r="U44" s="48"/>
-      <c r="V44" s="49"/>
+      <c r="U44" s="54"/>
+      <c r="V44" s="55"/>
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51"/>
       <c r="Z44" s="52"/>
       <c r="AA44" s="53"/>
-      <c r="AB44" s="92"/>
-      <c r="AC44" s="93"/>
+      <c r="AB44" s="94"/>
+      <c r="AC44" s="56"/>
       <c r="AD44" s="50"/>
       <c r="AE44" s="84"/>
       <c r="AF44" s="85"/>
       <c r="AG44" s="52"/>
       <c r="AH44" s="53"/>
-      <c r="AI44" s="48"/>
-      <c r="AJ44" s="49"/>
+      <c r="AI44" s="54"/>
+      <c r="AJ44" s="55"/>
       <c r="AK44" s="84"/>
       <c r="AL44" s="84"/>
       <c r="AM44" s="85"/>
       <c r="AN44" s="52"/>
       <c r="AO44" s="53"/>
-      <c r="AP44" s="48"/>
-      <c r="AQ44" s="49"/>
+      <c r="AP44" s="54"/>
+      <c r="AQ44" s="55"/>
       <c r="AR44" s="84"/>
       <c r="AS44" s="84"/>
       <c r="AT44" s="85"/>
       <c r="AU44" s="52"/>
       <c r="AV44" s="53"/>
-      <c r="AW44" s="48"/>
-      <c r="AX44" s="49"/>
+      <c r="AW44" s="54"/>
+      <c r="AX44" s="55"/>
       <c r="AY44" s="84"/>
       <c r="AZ44" s="84"/>
       <c r="BA44" s="51"/>
       <c r="BB44" s="52"/>
       <c r="BC44" s="53"/>
-      <c r="BD44" s="48"/>
-      <c r="BE44" s="49"/>
+      <c r="BD44" s="54"/>
+      <c r="BE44" s="55"/>
       <c r="BF44" s="50"/>
       <c r="BG44" s="50"/>
       <c r="BH44" s="51"/>
@@ -5701,10 +5719,10 @@
     </row>
     <row r="45" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="12">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C45" s="120"/>
       <c r="D45" s="76">
@@ -5771,227 +5789,225 @@
       <c r="BJ45" s="53"/>
     </row>
     <row r="46" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="12">
-        <v>403</v>
-      </c>
-      <c r="B46" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="120"/>
-      <c r="D46" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="45"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="55"/>
-      <c r="P46" s="84"/>
-      <c r="Q46" s="99"/>
-      <c r="R46" s="111"/>
-      <c r="S46" s="52"/>
-      <c r="T46" s="53"/>
-      <c r="U46" s="54"/>
-      <c r="V46" s="55"/>
-      <c r="W46" s="50"/>
-      <c r="X46" s="50"/>
-      <c r="Y46" s="51"/>
-      <c r="Z46" s="52"/>
-      <c r="AA46" s="53"/>
-      <c r="AB46" s="94"/>
-      <c r="AC46" s="56"/>
-      <c r="AD46" s="50"/>
-      <c r="AE46" s="84"/>
-      <c r="AF46" s="85"/>
-      <c r="AG46" s="52"/>
-      <c r="AH46" s="53"/>
-      <c r="AI46" s="54"/>
-      <c r="AJ46" s="55"/>
-      <c r="AK46" s="84"/>
-      <c r="AL46" s="84"/>
-      <c r="AM46" s="85"/>
-      <c r="AN46" s="52"/>
-      <c r="AO46" s="53"/>
-      <c r="AP46" s="54"/>
-      <c r="AQ46" s="55"/>
-      <c r="AR46" s="84"/>
-      <c r="AS46" s="84"/>
-      <c r="AT46" s="85"/>
-      <c r="AU46" s="52"/>
-      <c r="AV46" s="53"/>
-      <c r="AW46" s="54"/>
-      <c r="AX46" s="55"/>
-      <c r="AY46" s="84"/>
-      <c r="AZ46" s="84"/>
-      <c r="BA46" s="51"/>
-      <c r="BB46" s="52"/>
-      <c r="BC46" s="53"/>
-      <c r="BD46" s="54"/>
-      <c r="BE46" s="55"/>
-      <c r="BF46" s="50"/>
-      <c r="BG46" s="50"/>
-      <c r="BH46" s="51"/>
-      <c r="BI46" s="52"/>
-      <c r="BJ46" s="53"/>
+      <c r="A46" s="28">
+        <v>50</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="118">
+        <f>SUM(C47:C48)</f>
+        <v>17</v>
+      </c>
+      <c r="D46" s="39">
+        <f>SUM(D47:D48)</f>
+        <v>14</v>
+      </c>
+      <c r="E46" s="30"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="69"/>
+      <c r="N46" s="66"/>
+      <c r="O46" s="67"/>
+      <c r="P46" s="67"/>
+      <c r="Q46" s="67"/>
+      <c r="R46" s="68"/>
+      <c r="S46" s="68"/>
+      <c r="T46" s="69"/>
+      <c r="U46" s="66"/>
+      <c r="V46" s="67"/>
+      <c r="W46" s="67"/>
+      <c r="X46" s="67"/>
+      <c r="Y46" s="67"/>
+      <c r="Z46" s="68"/>
+      <c r="AA46" s="69"/>
+      <c r="AB46" s="70"/>
+      <c r="AC46" s="67"/>
+      <c r="AD46" s="67"/>
+      <c r="AE46" s="67"/>
+      <c r="AF46" s="68"/>
+      <c r="AG46" s="68"/>
+      <c r="AH46" s="69"/>
+      <c r="AI46" s="66"/>
+      <c r="AJ46" s="67"/>
+      <c r="AK46" s="67"/>
+      <c r="AL46" s="67"/>
+      <c r="AM46" s="68"/>
+      <c r="AN46" s="68"/>
+      <c r="AO46" s="69"/>
+      <c r="AP46" s="66"/>
+      <c r="AQ46" s="67"/>
+      <c r="AR46" s="67"/>
+      <c r="AS46" s="67"/>
+      <c r="AT46" s="68"/>
+      <c r="AU46" s="68"/>
+      <c r="AV46" s="69"/>
+      <c r="AW46" s="70"/>
+      <c r="AX46" s="67"/>
+      <c r="AY46" s="67"/>
+      <c r="AZ46" s="67"/>
+      <c r="BA46" s="67"/>
+      <c r="BB46" s="67"/>
+      <c r="BC46" s="69"/>
+      <c r="BD46" s="70"/>
+      <c r="BE46" s="67"/>
+      <c r="BF46" s="67"/>
+      <c r="BG46" s="67"/>
+      <c r="BH46" s="67"/>
+      <c r="BI46" s="67"/>
+      <c r="BJ46" s="71"/>
     </row>
     <row r="47" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="28">
-        <v>50</v>
-      </c>
-      <c r="B47" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="118">
-        <f>SUM(C48:C49)</f>
+      <c r="A47" s="12">
+        <v>501</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="120">
         <v>17</v>
       </c>
-      <c r="D47" s="39">
-        <f>SUM(D48:D49)</f>
+      <c r="D47" s="76">
+        <f>SUM(G47:BJ47)</f>
         <v>14</v>
       </c>
-      <c r="E47" s="30"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="68"/>
-      <c r="M47" s="69"/>
-      <c r="N47" s="66"/>
-      <c r="O47" s="67"/>
-      <c r="P47" s="67"/>
-      <c r="Q47" s="67"/>
-      <c r="R47" s="68"/>
-      <c r="S47" s="68"/>
-      <c r="T47" s="69"/>
-      <c r="U47" s="66"/>
-      <c r="V47" s="67"/>
-      <c r="W47" s="67"/>
-      <c r="X47" s="67"/>
-      <c r="Y47" s="67"/>
-      <c r="Z47" s="68"/>
-      <c r="AA47" s="69"/>
-      <c r="AB47" s="70"/>
-      <c r="AC47" s="67"/>
-      <c r="AD47" s="67"/>
-      <c r="AE47" s="67"/>
-      <c r="AF47" s="68"/>
-      <c r="AG47" s="68"/>
-      <c r="AH47" s="69"/>
-      <c r="AI47" s="66"/>
-      <c r="AJ47" s="67"/>
-      <c r="AK47" s="67"/>
-      <c r="AL47" s="67"/>
-      <c r="AM47" s="68"/>
-      <c r="AN47" s="68"/>
-      <c r="AO47" s="69"/>
-      <c r="AP47" s="66"/>
-      <c r="AQ47" s="67"/>
-      <c r="AR47" s="67"/>
-      <c r="AS47" s="67"/>
-      <c r="AT47" s="68"/>
-      <c r="AU47" s="68"/>
-      <c r="AV47" s="69"/>
-      <c r="AW47" s="70"/>
-      <c r="AX47" s="67"/>
-      <c r="AY47" s="67"/>
-      <c r="AZ47" s="67"/>
-      <c r="BA47" s="67"/>
-      <c r="BB47" s="67"/>
-      <c r="BC47" s="69"/>
-      <c r="BD47" s="70"/>
-      <c r="BE47" s="67"/>
-      <c r="BF47" s="67"/>
-      <c r="BG47" s="67"/>
-      <c r="BH47" s="67"/>
-      <c r="BI47" s="67"/>
-      <c r="BJ47" s="71"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="99"/>
+      <c r="K47" s="100"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="49"/>
+      <c r="P47" s="84"/>
+      <c r="Q47" s="112">
+        <v>0</v>
+      </c>
+      <c r="R47" s="123">
+        <v>0</v>
+      </c>
+      <c r="S47" s="52"/>
+      <c r="T47" s="53"/>
+      <c r="U47" s="48"/>
+      <c r="V47" s="49"/>
+      <c r="W47" s="99"/>
+      <c r="X47" s="112">
+        <v>2</v>
+      </c>
+      <c r="Y47" s="100"/>
+      <c r="Z47" s="52"/>
+      <c r="AA47" s="53"/>
+      <c r="AB47" s="92"/>
+      <c r="AC47" s="93"/>
+      <c r="AD47" s="112">
+        <v>8</v>
+      </c>
+      <c r="AE47" s="84"/>
+      <c r="AF47" s="85"/>
+      <c r="AG47" s="52"/>
+      <c r="AH47" s="53"/>
+      <c r="AI47" s="48"/>
+      <c r="AJ47" s="49"/>
+      <c r="AK47" s="84"/>
+      <c r="AL47" s="84"/>
+      <c r="AM47" s="85"/>
+      <c r="AN47" s="52"/>
+      <c r="AO47" s="53"/>
+      <c r="AP47" s="48"/>
+      <c r="AQ47" s="49"/>
+      <c r="AR47" s="84"/>
+      <c r="AS47" s="84"/>
+      <c r="AT47" s="85"/>
+      <c r="AU47" s="52"/>
+      <c r="AV47" s="53"/>
+      <c r="AW47" s="48"/>
+      <c r="AX47" s="49"/>
+      <c r="AY47" s="84"/>
+      <c r="AZ47" s="84"/>
+      <c r="BA47" s="123">
+        <v>4</v>
+      </c>
+      <c r="BB47" s="52"/>
+      <c r="BC47" s="53"/>
+      <c r="BD47" s="48"/>
+      <c r="BE47" s="49"/>
+      <c r="BF47" s="50"/>
+      <c r="BG47" s="50"/>
+      <c r="BH47" s="51"/>
+      <c r="BI47" s="52"/>
+      <c r="BJ47" s="53"/>
     </row>
     <row r="48" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="12">
-        <v>501</v>
-      </c>
-      <c r="B48" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="120">
-        <v>17</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="B48" s="43"/>
+      <c r="C48" s="120"/>
       <c r="D48" s="76">
         <f>SUM(G48:BJ48)</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E48" s="45"/>
       <c r="F48" s="46"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="63"/>
       <c r="I48" s="99"/>
       <c r="J48" s="99"/>
       <c r="K48" s="100"/>
       <c r="L48" s="52"/>
       <c r="M48" s="53"/>
-      <c r="N48" s="48"/>
-      <c r="O48" s="49"/>
+      <c r="N48" s="62"/>
+      <c r="O48" s="63"/>
       <c r="P48" s="84"/>
-      <c r="Q48" s="112">
-        <v>0</v>
-      </c>
-      <c r="R48" s="123">
-        <v>0</v>
-      </c>
+      <c r="Q48" s="99"/>
+      <c r="R48" s="100"/>
       <c r="S48" s="52"/>
       <c r="T48" s="53"/>
-      <c r="U48" s="48"/>
-      <c r="V48" s="49"/>
+      <c r="U48" s="62"/>
+      <c r="V48" s="63"/>
       <c r="W48" s="99"/>
-      <c r="X48" s="112">
-        <v>2</v>
-      </c>
+      <c r="X48" s="99"/>
       <c r="Y48" s="100"/>
       <c r="Z48" s="52"/>
       <c r="AA48" s="53"/>
-      <c r="AB48" s="92"/>
-      <c r="AC48" s="93"/>
-      <c r="AD48" s="112">
-        <v>8</v>
-      </c>
+      <c r="AB48" s="95"/>
+      <c r="AC48" s="96"/>
+      <c r="AD48" s="50"/>
       <c r="AE48" s="84"/>
       <c r="AF48" s="85"/>
       <c r="AG48" s="52"/>
       <c r="AH48" s="53"/>
-      <c r="AI48" s="48"/>
-      <c r="AJ48" s="49"/>
+      <c r="AI48" s="62"/>
+      <c r="AJ48" s="63"/>
       <c r="AK48" s="84"/>
       <c r="AL48" s="84"/>
       <c r="AM48" s="85"/>
       <c r="AN48" s="52"/>
       <c r="AO48" s="53"/>
-      <c r="AP48" s="48"/>
-      <c r="AQ48" s="49"/>
+      <c r="AP48" s="62"/>
+      <c r="AQ48" s="63"/>
       <c r="AR48" s="84"/>
       <c r="AS48" s="84"/>
       <c r="AT48" s="85"/>
       <c r="AU48" s="52"/>
       <c r="AV48" s="53"/>
-      <c r="AW48" s="48"/>
-      <c r="AX48" s="49"/>
+      <c r="AW48" s="62"/>
+      <c r="AX48" s="63"/>
       <c r="AY48" s="84"/>
       <c r="AZ48" s="84"/>
-      <c r="BA48" s="123">
-        <v>4</v>
-      </c>
+      <c r="BA48" s="51"/>
       <c r="BB48" s="52"/>
       <c r="BC48" s="53"/>
-      <c r="BD48" s="48"/>
-      <c r="BE48" s="49"/>
+      <c r="BD48" s="62"/>
+      <c r="BE48" s="63"/>
       <c r="BF48" s="50"/>
       <c r="BG48" s="50"/>
       <c r="BH48" s="51"/>
@@ -5999,213 +6015,219 @@
       <c r="BJ48" s="53"/>
     </row>
     <row r="49" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="12">
-        <v>502</v>
-      </c>
-      <c r="B49" s="43"/>
-      <c r="C49" s="120"/>
-      <c r="D49" s="76">
-        <f>SUM(G49:BJ49)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="99"/>
-      <c r="J49" s="99"/>
-      <c r="K49" s="100"/>
-      <c r="L49" s="52"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="62"/>
-      <c r="O49" s="63"/>
-      <c r="P49" s="84"/>
-      <c r="Q49" s="99"/>
-      <c r="R49" s="100"/>
-      <c r="S49" s="52"/>
-      <c r="T49" s="53"/>
-      <c r="U49" s="62"/>
-      <c r="V49" s="63"/>
-      <c r="W49" s="99"/>
-      <c r="X49" s="99"/>
-      <c r="Y49" s="100"/>
-      <c r="Z49" s="52"/>
-      <c r="AA49" s="53"/>
-      <c r="AB49" s="95"/>
-      <c r="AC49" s="96"/>
-      <c r="AD49" s="50"/>
-      <c r="AE49" s="84"/>
-      <c r="AF49" s="85"/>
-      <c r="AG49" s="52"/>
-      <c r="AH49" s="53"/>
-      <c r="AI49" s="62"/>
-      <c r="AJ49" s="63"/>
-      <c r="AK49" s="84"/>
-      <c r="AL49" s="84"/>
-      <c r="AM49" s="85"/>
-      <c r="AN49" s="52"/>
-      <c r="AO49" s="53"/>
-      <c r="AP49" s="62"/>
-      <c r="AQ49" s="63"/>
-      <c r="AR49" s="84"/>
-      <c r="AS49" s="84"/>
-      <c r="AT49" s="85"/>
-      <c r="AU49" s="52"/>
-      <c r="AV49" s="53"/>
-      <c r="AW49" s="62"/>
-      <c r="AX49" s="63"/>
-      <c r="AY49" s="84"/>
-      <c r="AZ49" s="84"/>
-      <c r="BA49" s="51"/>
-      <c r="BB49" s="52"/>
-      <c r="BC49" s="53"/>
-      <c r="BD49" s="62"/>
-      <c r="BE49" s="63"/>
-      <c r="BF49" s="50"/>
-      <c r="BG49" s="50"/>
-      <c r="BH49" s="51"/>
-      <c r="BI49" s="52"/>
-      <c r="BJ49" s="53"/>
+      <c r="A49" s="28">
+        <v>60</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="118">
+        <f>SUM(C50:C52)</f>
+        <v>2</v>
+      </c>
+      <c r="D49" s="39">
+        <f>SUM(D50:D52)</f>
+        <v>2</v>
+      </c>
+      <c r="E49" s="30"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="68"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="66"/>
+      <c r="O49" s="67"/>
+      <c r="P49" s="67"/>
+      <c r="Q49" s="67"/>
+      <c r="R49" s="68"/>
+      <c r="S49" s="68"/>
+      <c r="T49" s="69"/>
+      <c r="U49" s="66"/>
+      <c r="V49" s="67"/>
+      <c r="W49" s="67"/>
+      <c r="X49" s="67"/>
+      <c r="Y49" s="67"/>
+      <c r="Z49" s="68"/>
+      <c r="AA49" s="69"/>
+      <c r="AB49" s="70"/>
+      <c r="AC49" s="67"/>
+      <c r="AD49" s="67"/>
+      <c r="AE49" s="67"/>
+      <c r="AF49" s="68"/>
+      <c r="AG49" s="68"/>
+      <c r="AH49" s="69"/>
+      <c r="AI49" s="66"/>
+      <c r="AJ49" s="67"/>
+      <c r="AK49" s="67"/>
+      <c r="AL49" s="67"/>
+      <c r="AM49" s="68"/>
+      <c r="AN49" s="68"/>
+      <c r="AO49" s="69"/>
+      <c r="AP49" s="66"/>
+      <c r="AQ49" s="67"/>
+      <c r="AR49" s="67"/>
+      <c r="AS49" s="67"/>
+      <c r="AT49" s="68"/>
+      <c r="AU49" s="68"/>
+      <c r="AV49" s="69"/>
+      <c r="AW49" s="70"/>
+      <c r="AX49" s="67"/>
+      <c r="AY49" s="67"/>
+      <c r="AZ49" s="67"/>
+      <c r="BA49" s="67"/>
+      <c r="BB49" s="67"/>
+      <c r="BC49" s="69"/>
+      <c r="BD49" s="70"/>
+      <c r="BE49" s="67"/>
+      <c r="BF49" s="67"/>
+      <c r="BG49" s="67"/>
+      <c r="BH49" s="67"/>
+      <c r="BI49" s="67"/>
+      <c r="BJ49" s="71"/>
     </row>
     <row r="50" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="28">
-        <v>60</v>
-      </c>
-      <c r="B50" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="118">
-        <f>SUM(C51:C53)</f>
-        <v>2</v>
-      </c>
-      <c r="D50" s="39">
-        <f>SUM(D51:D53)</f>
-        <v>0</v>
-      </c>
-      <c r="E50" s="30"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="68"/>
-      <c r="M50" s="69"/>
-      <c r="N50" s="66"/>
-      <c r="O50" s="67"/>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="67"/>
-      <c r="R50" s="68"/>
-      <c r="S50" s="68"/>
-      <c r="T50" s="69"/>
-      <c r="U50" s="66"/>
-      <c r="V50" s="67"/>
-      <c r="W50" s="67"/>
-      <c r="X50" s="67"/>
-      <c r="Y50" s="67"/>
-      <c r="Z50" s="68"/>
-      <c r="AA50" s="69"/>
-      <c r="AB50" s="70"/>
-      <c r="AC50" s="67"/>
-      <c r="AD50" s="67"/>
-      <c r="AE50" s="67"/>
-      <c r="AF50" s="68"/>
-      <c r="AG50" s="68"/>
-      <c r="AH50" s="69"/>
-      <c r="AI50" s="66"/>
-      <c r="AJ50" s="67"/>
-      <c r="AK50" s="67"/>
-      <c r="AL50" s="67"/>
-      <c r="AM50" s="68"/>
-      <c r="AN50" s="68"/>
-      <c r="AO50" s="69"/>
-      <c r="AP50" s="66"/>
-      <c r="AQ50" s="67"/>
-      <c r="AR50" s="67"/>
-      <c r="AS50" s="67"/>
-      <c r="AT50" s="68"/>
-      <c r="AU50" s="68"/>
-      <c r="AV50" s="69"/>
-      <c r="AW50" s="70"/>
-      <c r="AX50" s="67"/>
-      <c r="AY50" s="67"/>
-      <c r="AZ50" s="67"/>
-      <c r="BA50" s="67"/>
-      <c r="BB50" s="67"/>
-      <c r="BC50" s="69"/>
-      <c r="BD50" s="70"/>
-      <c r="BE50" s="67"/>
-      <c r="BF50" s="67"/>
-      <c r="BG50" s="67"/>
-      <c r="BH50" s="67"/>
-      <c r="BI50" s="67"/>
-      <c r="BJ50" s="71"/>
+      <c r="A50" s="12">
+        <v>601</v>
+      </c>
+      <c r="B50" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="120"/>
+      <c r="D50" s="76">
+        <f t="shared" ref="D50:D52" si="3">SUM(G50:BJ50)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="45"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="53"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="49"/>
+      <c r="P50" s="84"/>
+      <c r="Q50" s="50"/>
+      <c r="R50" s="51"/>
+      <c r="S50" s="52"/>
+      <c r="T50" s="53"/>
+      <c r="U50" s="48"/>
+      <c r="V50" s="49"/>
+      <c r="W50" s="50"/>
+      <c r="X50" s="50"/>
+      <c r="Y50" s="51"/>
+      <c r="Z50" s="52"/>
+      <c r="AA50" s="53"/>
+      <c r="AB50" s="92"/>
+      <c r="AC50" s="93"/>
+      <c r="AD50" s="50"/>
+      <c r="AE50" s="84"/>
+      <c r="AF50" s="85"/>
+      <c r="AG50" s="52"/>
+      <c r="AH50" s="53"/>
+      <c r="AI50" s="48"/>
+      <c r="AJ50" s="49"/>
+      <c r="AK50" s="84"/>
+      <c r="AL50" s="84"/>
+      <c r="AM50" s="85"/>
+      <c r="AN50" s="52"/>
+      <c r="AO50" s="53"/>
+      <c r="AP50" s="48"/>
+      <c r="AQ50" s="49"/>
+      <c r="AR50" s="84"/>
+      <c r="AS50" s="84"/>
+      <c r="AT50" s="85"/>
+      <c r="AU50" s="52"/>
+      <c r="AV50" s="53"/>
+      <c r="AW50" s="48"/>
+      <c r="AX50" s="49"/>
+      <c r="AY50" s="84"/>
+      <c r="AZ50" s="84"/>
+      <c r="BA50" s="100"/>
+      <c r="BB50" s="52"/>
+      <c r="BC50" s="53"/>
+      <c r="BD50" s="48"/>
+      <c r="BE50" s="49"/>
+      <c r="BF50" s="50"/>
+      <c r="BG50" s="50"/>
+      <c r="BH50" s="51"/>
+      <c r="BI50" s="52"/>
+      <c r="BJ50" s="53"/>
     </row>
     <row r="51" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="12">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="120"/>
+        <v>40</v>
+      </c>
+      <c r="C51" s="120">
+        <v>2</v>
+      </c>
       <c r="D51" s="76">
-        <f t="shared" ref="D51:D53" si="3">SUM(G51:BJ51)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="E51" s="45"/>
       <c r="F51" s="46"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="49"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="55"/>
       <c r="I51" s="50"/>
       <c r="J51" s="50"/>
       <c r="K51" s="51"/>
       <c r="L51" s="52"/>
       <c r="M51" s="53"/>
-      <c r="N51" s="48"/>
-      <c r="O51" s="49"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="55"/>
       <c r="P51" s="84"/>
       <c r="Q51" s="50"/>
       <c r="R51" s="51"/>
       <c r="S51" s="52"/>
       <c r="T51" s="53"/>
-      <c r="U51" s="48"/>
-      <c r="V51" s="49"/>
+      <c r="U51" s="54"/>
+      <c r="V51" s="55"/>
       <c r="W51" s="50"/>
       <c r="X51" s="50"/>
       <c r="Y51" s="51"/>
       <c r="Z51" s="52"/>
       <c r="AA51" s="53"/>
-      <c r="AB51" s="92"/>
-      <c r="AC51" s="93"/>
+      <c r="AB51" s="94"/>
+      <c r="AC51" s="56"/>
       <c r="AD51" s="50"/>
       <c r="AE51" s="84"/>
       <c r="AF51" s="85"/>
       <c r="AG51" s="52"/>
       <c r="AH51" s="53"/>
-      <c r="AI51" s="48"/>
-      <c r="AJ51" s="49"/>
+      <c r="AI51" s="54"/>
+      <c r="AJ51" s="55"/>
       <c r="AK51" s="84"/>
       <c r="AL51" s="84"/>
       <c r="AM51" s="85"/>
       <c r="AN51" s="52"/>
       <c r="AO51" s="53"/>
-      <c r="AP51" s="48"/>
-      <c r="AQ51" s="49"/>
+      <c r="AP51" s="54"/>
+      <c r="AQ51" s="55"/>
       <c r="AR51" s="84"/>
       <c r="AS51" s="84"/>
       <c r="AT51" s="85"/>
       <c r="AU51" s="52"/>
       <c r="AV51" s="53"/>
-      <c r="AW51" s="48"/>
-      <c r="AX51" s="49"/>
+      <c r="AW51" s="54"/>
+      <c r="AX51" s="55"/>
       <c r="AY51" s="84"/>
       <c r="AZ51" s="84"/>
-      <c r="BA51" s="100"/>
+      <c r="BA51" s="123">
+        <v>2</v>
+      </c>
       <c r="BB51" s="52"/>
       <c r="BC51" s="53"/>
-      <c r="BD51" s="48"/>
-      <c r="BE51" s="49"/>
+      <c r="BD51" s="54"/>
+      <c r="BE51" s="55"/>
       <c r="BF51" s="50"/>
       <c r="BG51" s="50"/>
       <c r="BH51" s="51"/>
@@ -6214,383 +6236,310 @@
     </row>
     <row r="52" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="12">
-        <v>602</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="120">
-        <v>2</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="B52" s="43"/>
+      <c r="C52" s="120"/>
       <c r="D52" s="76">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E52" s="45"/>
       <c r="F52" s="46"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="55"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="63"/>
       <c r="I52" s="50"/>
       <c r="J52" s="50"/>
       <c r="K52" s="51"/>
       <c r="L52" s="52"/>
       <c r="M52" s="53"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="55"/>
+      <c r="N52" s="62"/>
+      <c r="O52" s="63"/>
       <c r="P52" s="84"/>
       <c r="Q52" s="50"/>
       <c r="R52" s="51"/>
       <c r="S52" s="52"/>
       <c r="T52" s="53"/>
-      <c r="U52" s="54"/>
-      <c r="V52" s="55"/>
+      <c r="U52" s="62"/>
+      <c r="V52" s="63"/>
       <c r="W52" s="50"/>
       <c r="X52" s="50"/>
       <c r="Y52" s="51"/>
       <c r="Z52" s="52"/>
       <c r="AA52" s="53"/>
-      <c r="AB52" s="94"/>
-      <c r="AC52" s="56"/>
+      <c r="AB52" s="95"/>
+      <c r="AC52" s="96"/>
       <c r="AD52" s="50"/>
       <c r="AE52" s="84"/>
       <c r="AF52" s="85"/>
       <c r="AG52" s="52"/>
       <c r="AH52" s="53"/>
-      <c r="AI52" s="54"/>
-      <c r="AJ52" s="55"/>
+      <c r="AI52" s="62"/>
+      <c r="AJ52" s="63"/>
       <c r="AK52" s="84"/>
       <c r="AL52" s="84"/>
       <c r="AM52" s="85"/>
       <c r="AN52" s="52"/>
       <c r="AO52" s="53"/>
-      <c r="AP52" s="54"/>
-      <c r="AQ52" s="55"/>
+      <c r="AP52" s="62"/>
+      <c r="AQ52" s="63"/>
       <c r="AR52" s="84"/>
       <c r="AS52" s="84"/>
       <c r="AT52" s="85"/>
       <c r="AU52" s="52"/>
       <c r="AV52" s="53"/>
-      <c r="AW52" s="54"/>
-      <c r="AX52" s="55"/>
+      <c r="AW52" s="62"/>
+      <c r="AX52" s="63"/>
       <c r="AY52" s="84"/>
       <c r="AZ52" s="84"/>
-      <c r="BA52" s="123"/>
+      <c r="BA52" s="51"/>
       <c r="BB52" s="52"/>
       <c r="BC52" s="53"/>
-      <c r="BD52" s="54"/>
-      <c r="BE52" s="55"/>
+      <c r="BD52" s="62"/>
+      <c r="BE52" s="63"/>
       <c r="BF52" s="50"/>
       <c r="BG52" s="50"/>
       <c r="BH52" s="51"/>
       <c r="BI52" s="52"/>
       <c r="BJ52" s="53"/>
     </row>
-    <row r="53" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="12">
-        <v>603</v>
-      </c>
-      <c r="B53" s="43"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E53" s="45"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="51"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="62"/>
-      <c r="O53" s="63"/>
-      <c r="P53" s="84"/>
-      <c r="Q53" s="50"/>
-      <c r="R53" s="51"/>
-      <c r="S53" s="52"/>
-      <c r="T53" s="53"/>
-      <c r="U53" s="62"/>
-      <c r="V53" s="63"/>
-      <c r="W53" s="50"/>
-      <c r="X53" s="50"/>
-      <c r="Y53" s="51"/>
-      <c r="Z53" s="52"/>
-      <c r="AA53" s="53"/>
-      <c r="AB53" s="95"/>
-      <c r="AC53" s="96"/>
-      <c r="AD53" s="50"/>
-      <c r="AE53" s="84"/>
-      <c r="AF53" s="85"/>
-      <c r="AG53" s="52"/>
-      <c r="AH53" s="53"/>
-      <c r="AI53" s="62"/>
-      <c r="AJ53" s="63"/>
-      <c r="AK53" s="84"/>
-      <c r="AL53" s="84"/>
-      <c r="AM53" s="85"/>
-      <c r="AN53" s="52"/>
-      <c r="AO53" s="53"/>
-      <c r="AP53" s="62"/>
-      <c r="AQ53" s="63"/>
-      <c r="AR53" s="84"/>
-      <c r="AS53" s="84"/>
-      <c r="AT53" s="85"/>
-      <c r="AU53" s="52"/>
-      <c r="AV53" s="53"/>
-      <c r="AW53" s="62"/>
-      <c r="AX53" s="63"/>
-      <c r="AY53" s="84"/>
-      <c r="AZ53" s="84"/>
-      <c r="BA53" s="51"/>
-      <c r="BB53" s="52"/>
-      <c r="BC53" s="53"/>
-      <c r="BD53" s="62"/>
-      <c r="BE53" s="63"/>
-      <c r="BF53" s="50"/>
-      <c r="BG53" s="50"/>
-      <c r="BH53" s="51"/>
-      <c r="BI53" s="52"/>
-      <c r="BJ53" s="53"/>
-    </row>
-    <row r="54" spans="1:62" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="33"/>
-      <c r="B54" s="34" t="s">
+    <row r="53" spans="1:62" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="33"/>
+      <c r="B53" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="121">
-        <f>C50+C47+C43+C18+C14+C9</f>
+      <c r="C53" s="121">
+        <f>C49+C46+C42+C18+C14+C9</f>
         <v>75.5</v>
       </c>
-      <c r="D54" s="35">
-        <f>D50+D47+D43+D18+D14+D9</f>
-        <v>48</v>
-      </c>
-      <c r="E54" s="35"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="37">
-        <f t="shared" ref="G54:AL54" si="4">SUM(G9:G53)</f>
-        <v>0</v>
-      </c>
-      <c r="H54" s="37">
+      <c r="D53" s="35">
+        <f>D49+D46+D42+D18+D14+D9</f>
+        <v>70</v>
+      </c>
+      <c r="E53" s="35"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="37">
+        <f>SUM(G9:G52)</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="37">
+        <f>SUM(H9:H52)</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="37">
+        <f>SUM(I9:I52)</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="37">
+        <f>SUM(J9:J52)</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="37">
+        <f>SUM(K9:K52)</f>
+        <v>0</v>
+      </c>
+      <c r="L53" s="37">
+        <f>SUM(L9:L52)</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="37">
+        <f>SUM(M9:M52)</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="37">
+        <f>SUM(N9:N52)</f>
+        <v>0</v>
+      </c>
+      <c r="O53" s="37">
+        <f>SUM(O9:O52)</f>
+        <v>0</v>
+      </c>
+      <c r="P53" s="37">
+        <f>SUM(P9:P52)</f>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="37">
+        <f>SUM(Q9:Q52)</f>
+        <v>8</v>
+      </c>
+      <c r="R53" s="37">
+        <f>SUM(R9:R52)</f>
+        <v>15</v>
+      </c>
+      <c r="S53" s="37">
+        <f>SUM(S9:S52)</f>
+        <v>0</v>
+      </c>
+      <c r="T53" s="37">
+        <f>SUM(T9:T52)</f>
+        <v>0</v>
+      </c>
+      <c r="U53" s="37">
+        <f>SUM(U9:U52)</f>
+        <v>0</v>
+      </c>
+      <c r="V53" s="37">
+        <f>SUM(V9:V52)</f>
+        <v>0</v>
+      </c>
+      <c r="W53" s="37">
+        <f>SUM(W9:W52)</f>
+        <v>9</v>
+      </c>
+      <c r="X53" s="37">
+        <f>SUM(X9:X52)</f>
+        <v>7</v>
+      </c>
+      <c r="Y53" s="37">
+        <f>SUM(Y9:Y52)</f>
+        <v>0</v>
+      </c>
+      <c r="Z53" s="37">
+        <f>SUM(Z9:Z52)</f>
+        <v>0</v>
+      </c>
+      <c r="AA53" s="37">
+        <f>SUM(AA9:AA52)</f>
+        <v>0</v>
+      </c>
+      <c r="AB53" s="37">
+        <f>SUM(AB9:AB52)</f>
+        <v>0</v>
+      </c>
+      <c r="AC53" s="37">
+        <f>SUM(AC9:AC52)</f>
+        <v>16</v>
+      </c>
+      <c r="AD53" s="37">
+        <f>SUM(AD9:AD52)</f>
+        <v>8</v>
+      </c>
+      <c r="AE53" s="37">
+        <f>SUM(AE9:AE52)</f>
+        <v>0</v>
+      </c>
+      <c r="AF53" s="37">
+        <f>SUM(AF9:AF52)</f>
+        <v>0</v>
+      </c>
+      <c r="AG53" s="37">
+        <f>SUM(AG9:AG52)</f>
+        <v>0</v>
+      </c>
+      <c r="AH53" s="37">
+        <f>SUM(AH9:AH52)</f>
+        <v>0</v>
+      </c>
+      <c r="AI53" s="37">
+        <f>SUM(AI9:AI52)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="37">
+        <f>SUM(AJ9:AJ52)</f>
+        <v>0</v>
+      </c>
+      <c r="AK53" s="37">
+        <f>SUM(AK9:AK52)</f>
+        <v>0</v>
+      </c>
+      <c r="AL53" s="37">
+        <f>SUM(AL9:AL52)</f>
+        <v>0</v>
+      </c>
+      <c r="AM53" s="37">
+        <f t="shared" ref="AM53:BJ53" si="4">SUM(AM9:AM52)</f>
+        <v>0</v>
+      </c>
+      <c r="AN53" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I54" s="37">
+      <c r="AO53" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J54" s="37">
+      <c r="AP53" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K54" s="37">
+      <c r="AQ53" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L54" s="37">
+      <c r="AR53" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M54" s="37">
+      <c r="AS53" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N54" s="37">
+      <c r="AT53" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O54" s="37">
+      <c r="AU53" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P54" s="37">
+      <c r="AV53" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q54" s="37">
+      <c r="AW53" s="37">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="R54" s="37">
+        <v>0</v>
+      </c>
+      <c r="AX53" s="37">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="S54" s="37">
+        <v>0</v>
+      </c>
+      <c r="AY53" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T54" s="37">
+      <c r="AZ53" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U54" s="37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V54" s="37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W54" s="37">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="X54" s="37">
+      <c r="BA53" s="37">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="Y54" s="37">
+      <c r="BB53" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z54" s="37">
+      <c r="BC53" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA54" s="37">
+      <c r="BD53" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB54" s="37">
+      <c r="BE53" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AC54" s="37">
+      <c r="BF53" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD54" s="37">
+      <c r="BG53" s="37">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="AE54" s="37">
+        <v>0</v>
+      </c>
+      <c r="BH53" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF54" s="37">
+      <c r="BI53" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG54" s="37">
+      <c r="BJ53" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AH54" s="37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI54" s="37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AJ54" s="37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AK54" s="37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AL54" s="37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AM54" s="37">
-        <f t="shared" ref="AM54:BJ54" si="5">SUM(AM9:AM53)</f>
-        <v>0</v>
-      </c>
-      <c r="AN54" s="37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AO54" s="37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AP54" s="37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ54" s="37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AR54" s="37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AS54" s="37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AT54" s="37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AU54" s="37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AV54" s="37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AW54" s="37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AX54" s="37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AY54" s="37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AZ54" s="37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BA54" s="37">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="BB54" s="37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BC54" s="37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BD54" s="37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BE54" s="37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BF54" s="37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BG54" s="37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BH54" s="37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BI54" s="37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ54" s="38">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6663,7 +6612,7 @@
       </c>
       <c r="D3" s="73">
         <f>Zeitplanung!D9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="75"/>
       <c r="F3" s="74"/>
@@ -6697,56 +6646,56 @@
       </c>
       <c r="D5" s="73">
         <f>Zeitplanung!D18</f>
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E5" s="75"/>
       <c r="F5" s="74"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="133" t="str">
-        <f>Zeitplanung!B43</f>
+        <f>Zeitplanung!B42</f>
         <v>Testen</v>
       </c>
       <c r="B6" s="134"/>
       <c r="C6" s="73">
-        <f>Zeitplanung!C43</f>
+        <f>Zeitplanung!C42</f>
         <v>0</v>
       </c>
       <c r="D6" s="73">
-        <f>Zeitplanung!D43</f>
+        <f>Zeitplanung!D42</f>
         <v>0</v>
       </c>
       <c r="F6" s="74"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="133" t="str">
-        <f>Zeitplanung!B47</f>
+        <f>Zeitplanung!B46</f>
         <v>Diverses</v>
       </c>
       <c r="B7" s="134"/>
       <c r="C7" s="73">
-        <f>Zeitplanung!C47</f>
+        <f>Zeitplanung!C46</f>
         <v>17</v>
       </c>
       <c r="D7" s="73">
-        <f>Zeitplanung!D47</f>
+        <f>Zeitplanung!D46</f>
         <v>14</v>
       </c>
       <c r="F7" s="74"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="133" t="str">
-        <f>Zeitplanung!B50</f>
+        <f>Zeitplanung!B49</f>
         <v>Abschluss</v>
       </c>
       <c r="B8" s="134"/>
       <c r="C8" s="73">
-        <f>Zeitplanung!C50</f>
+        <f>Zeitplanung!C49</f>
         <v>2</v>
       </c>
       <c r="D8" s="73">
-        <f>Zeitplanung!D50</f>
-        <v>0</v>
+        <f>Zeitplanung!D49</f>
+        <v>2</v>
       </c>
       <c r="F8" s="74"/>
     </row>
